--- a/Solarhalterung_Schrauben.xlsx
+++ b/Solarhalterung_Schrauben.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF19EE95-4EFA-411F-8620-E254917F0438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31295B37-C49B-4188-808A-ABE92EF66D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7B0C9317-84DD-4C75-BA60-38AA9EFAD241}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
   <si>
     <t>Schrauben:</t>
   </si>
@@ -109,7 +109,7 @@
     <t>Menge (Stk)</t>
   </si>
   <si>
-    <t>Gesammt:</t>
+    <t>M10x25</t>
   </si>
 </sst>
 </file>
@@ -248,11 +248,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -260,11 +259,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
@@ -804,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC98915-8104-42BA-9681-B8982ADE0E9E}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,38 +815,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -866,9 +862,9 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -884,30 +880,30 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -923,9 +919,9 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -941,9 +937,9 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -959,30 +955,30 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
@@ -998,9 +994,9 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
@@ -1016,30 +1012,30 @@
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
@@ -1055,9 +1051,9 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
@@ -1073,9 +1069,9 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
@@ -1089,34 +1085,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="2" t="s">
         <v>1</v>
@@ -1125,16 +1121,16 @@
         <v>18</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="2" t="s">
         <v>2</v>
@@ -1143,75 +1139,88 @@
         <v>18</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="12">
-        <v>14</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C42" s="13">
-        <v>4</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C43" s="12">
-        <v>16</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C44" s="13">
-        <v>8</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="12">
-        <v>28</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C47" s="13">
-        <v>20</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C48" s="12">
-        <v>8</v>
-      </c>
-      <c r="D48" s="10" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Solarhalterung_Schrauben.xlsx
+++ b/Solarhalterung_Schrauben.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31295B37-C49B-4188-808A-ABE92EF66D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9567E187-5B55-4847-8A80-A37614AFAD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7B0C9317-84DD-4C75-BA60-38AA9EFAD241}"/>
+    <workbookView xWindow="13755" yWindow="3060" windowWidth="21600" windowHeight="11385" xr2:uid="{7B0C9317-84DD-4C75-BA60-38AA9EFAD241}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="26">
   <si>
     <t>Schrauben:</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>M10x25</t>
+  </si>
+  <si>
+    <t>Einpressmuttern:</t>
   </si>
 </sst>
 </file>
@@ -248,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -261,6 +264,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
@@ -802,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC98915-8104-42BA-9681-B8982ADE0E9E}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,9 +1158,15 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="10"/>
+      <c r="B42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
     </row>

--- a/Solarhalterung_Schrauben.xlsx
+++ b/Solarhalterung_Schrauben.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9567E187-5B55-4847-8A80-A37614AFAD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B62037-E749-4699-B63F-C6DA73AB3454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13755" yWindow="3060" windowWidth="21600" windowHeight="11385" xr2:uid="{7B0C9317-84DD-4C75-BA60-38AA9EFAD241}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7B0C9317-84DD-4C75-BA60-38AA9EFAD241}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -808,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC98915-8104-42BA-9681-B8982ADE0E9E}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Solarhalterung_Schrauben.xlsx
+++ b/Solarhalterung_Schrauben.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B62037-E749-4699-B63F-C6DA73AB3454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F98AB3A-6DB3-4359-9300-B46160A486F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7B0C9317-84DD-4C75-BA60-38AA9EFAD241}"/>
   </bookViews>
@@ -808,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC98915-8104-42BA-9681-B8982ADE0E9E}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S10" sqref="S9:S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
